--- a/KRONOS_marker_metadata.xlsx
+++ b/KRONOS_marker_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\OneDrive - Bar Ilan University\Academic\Postdoc\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7A628BCD-5047-43E8-B0A1-CE22A4A5BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4DCACD-AF92-4A91-932D-5D1FE690567A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F6328EA-3993-467E-9DAB-5F533ECC0311}"/>
   </bookViews>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stats!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="293">
   <si>
     <t>marker_name</t>
   </si>
@@ -836,71 +849,74 @@
     <t>Group</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ASMA</t>
+  </si>
+  <si>
+    <t>BCATENIN</t>
+  </si>
+  <si>
+    <t>BTUBULIN</t>
+  </si>
+  <si>
+    <t>BDCA2</t>
+  </si>
+  <si>
+    <t>DCSIGN</t>
+  </si>
+  <si>
+    <t>ECADHERIN</t>
+  </si>
+  <si>
+    <t>GALECTIN3</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>SIGELC3</t>
+  </si>
+  <si>
+    <t>SIGLEC7</t>
+  </si>
+  <si>
+    <t>SIGLEC9</t>
+  </si>
+  <si>
+    <t>Ecadherin</t>
+  </si>
+  <si>
+    <t>HLAABC</t>
+  </si>
+  <si>
+    <t>KRT818</t>
+  </si>
+  <si>
+    <t>Ly6C</t>
+  </si>
+  <si>
+    <t>MHCII (IA/IE)</t>
+  </si>
+  <si>
+    <t>Ncadherin</t>
+  </si>
+  <si>
+    <t>PanKRT</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>KRONOS</t>
+  </si>
+  <si>
+    <t>Exist?</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-KRONOS match?</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ASMA</t>
-  </si>
-  <si>
-    <t>BCATENIN</t>
-  </si>
-  <si>
-    <t>BTUBULIN</t>
-  </si>
-  <si>
-    <t>BDCA2</t>
-  </si>
-  <si>
-    <t>DCSIGN</t>
-  </si>
-  <si>
-    <t>ECADHERIN</t>
-  </si>
-  <si>
-    <t>GALECTIN3</t>
-  </si>
-  <si>
-    <t>IL1B</t>
-  </si>
-  <si>
-    <t>SIGELC3</t>
-  </si>
-  <si>
-    <t>SIGLEC7</t>
-  </si>
-  <si>
-    <t>SIGLEC9</t>
-  </si>
-  <si>
-    <t>Ecadherin</t>
-  </si>
-  <si>
-    <t>HLAABC</t>
-  </si>
-  <si>
-    <t>KRT818</t>
-  </si>
-  <si>
-    <t>Ly6C</t>
-  </si>
-  <si>
-    <t>MHCII (IA/IE)</t>
-  </si>
-  <si>
-    <t>Ncadherin</t>
-  </si>
-  <si>
-    <t>PanKRT</t>
-  </si>
-  <si>
-    <t>Ours</t>
-  </si>
-  <si>
-    <t>KRONOS</t>
+KRONOS</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1111,7 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,6 +1297,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1457,7 +1479,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1483,21 +1505,24 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1875,120 +1900,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86072D-E137-407F-8583-B9AFACCED0CB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A2)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A2)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A3)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A3)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A4)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A4)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B5" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A5)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A5)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B6" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A6)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A7)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B8" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A8)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B9" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A9)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B10" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A10)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B11" s="2">
-        <f>COUNTIF(marker_metadata!$M$3:$N$81,A11)</f>
+        <f>COUNTIF(marker_metadata!$L$3:$M$81,A11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16">
         <f>SUM(B2:B11)</f>
         <v>16</v>
       </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{6C86072D-E137-407F-8583-B9AFACCED0CB}">
@@ -2002,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9AD95F-BEC5-400F-B06F-D35DC5EF4D74}">
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2014,13 +2150,13 @@
     <col min="4" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.9140625" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="5">
         <f>COUNTA(B3:B179)</f>
@@ -2032,14 +2168,14 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I1" s="5">
         <f>COUNTA(H3:H81)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -2056,26 +2192,28 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="L2" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2094,29 +2232,28 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="str">
+      <c r="L3" s="9" t="str">
         <f>IFERROR(VLOOKUP(UPPER(K3),$F$3:$F$179,1,0),IFERROR(VLOOKUP(K3,$F$3:$F$179,1,0),""))</f>
         <v>ASMA</v>
       </c>
-      <c r="N3" t="str">
+      <c r="M3" t="str">
         <f>J3</f>
         <v>CAFs</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2135,25 +2272,24 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10" t="str">
-        <f t="shared" ref="M4:M67" si="0">IFERROR(VLOOKUP(UPPER(K4),$F$3:$F$179,1,0),IFERROR(VLOOKUP(K4,$F$3:$F$179,1,0),""))</f>
+      <c r="L4" s="9" t="str">
+        <f t="shared" ref="L4:L67" si="0">IFERROR(VLOOKUP(UPPER(K4),$F$3:$F$179,1,0),IFERROR(VLOOKUP(K4,$F$3:$F$179,1,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2172,25 +2308,24 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10" t="str">
+      <c r="L5" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2209,29 +2344,28 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CD11B</v>
       </c>
-      <c r="N6" t="str">
+      <c r="M6" t="str">
         <f>J6</f>
         <v>Immune</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2250,29 +2384,28 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="10" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CD206</v>
       </c>
-      <c r="N7" t="str">
+      <c r="M7" t="str">
         <f>J7</f>
         <v>Immune</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2291,25 +2424,24 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="10" t="str">
+      <c r="L8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2328,25 +2460,24 @@
       <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="10" t="str">
+      <c r="L9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2365,29 +2496,28 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="10" t="str">
+      <c r="L10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CD31</v>
       </c>
-      <c r="N10" t="str">
+      <c r="M10" t="str">
         <f>J10</f>
         <v>Stroma - pericytes</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2406,25 +2536,24 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="10" t="str">
+      <c r="L11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2443,29 +2572,28 @@
       <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="10" t="str">
+      <c r="L12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CD44</v>
       </c>
-      <c r="N12" t="str">
+      <c r="M12" t="str">
         <f>J12</f>
         <v>Cancer</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2484,29 +2612,28 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="10" t="str">
+      <c r="L13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CD45</v>
       </c>
-      <c r="N13" t="str">
+      <c r="M13" t="str">
         <f>J13</f>
         <v>Immune</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2525,25 +2652,24 @@
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="10" t="str">
+      <c r="L14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2562,25 +2688,24 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="10" t="str">
+      <c r="L15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2599,25 +2724,24 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="10" t="str">
+      <c r="L16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2636,25 +2760,24 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="10" t="str">
+      <c r="L17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2673,25 +2796,24 @@
       <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="10" t="str">
+      <c r="L18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2710,29 +2832,28 @@
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="10" t="str">
+      <c r="K19" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="L19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ECADHERIN</v>
       </c>
-      <c r="N19" t="str">
+      <c r="M19" t="str">
         <f>J19</f>
         <v>Cancer</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2751,29 +2872,28 @@
       <c r="F20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="10" t="str">
+      <c r="L20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>EPCAM</v>
       </c>
-      <c r="N20" t="str">
+      <c r="M20" t="str">
         <f>J20</f>
         <v>Cancer</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2792,25 +2912,24 @@
       <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="10" t="str">
+      <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2829,25 +2948,24 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="10" t="str">
+      <c r="L22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2866,29 +2984,28 @@
       <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="10" t="str">
+      <c r="L23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FOXP3</v>
       </c>
-      <c r="N23" t="str">
+      <c r="M23" t="str">
         <f>J23</f>
         <v>Immune</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2907,25 +3024,24 @@
       <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="10" t="str">
+      <c r="L24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2944,29 +3060,28 @@
       <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="10" t="str">
+      <c r="L25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>GATA3</v>
       </c>
-      <c r="N25" t="str">
+      <c r="M25" t="str">
         <f>J25</f>
         <v>Cancer</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2985,25 +3100,24 @@
       <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="10" t="str">
+      <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3022,25 +3136,24 @@
       <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="10" t="str">
+      <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3059,25 +3172,24 @@
       <c r="F28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="10" t="str">
+      <c r="L28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3096,25 +3208,24 @@
       <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="10" t="str">
+      <c r="L29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3133,25 +3244,24 @@
       <c r="F30" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="10" t="str">
+      <c r="L30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3170,25 +3280,24 @@
       <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="10" t="str">
+      <c r="L31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3205,27 +3314,26 @@
         <v>4.1247284271776999E-2</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
-      </c>
-      <c r="H32" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="10" t="str">
+      <c r="L32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3244,29 +3352,28 @@
       <c r="F33" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="10" t="str">
+      <c r="L33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>H3K27AC</v>
       </c>
-      <c r="N33" t="str">
+      <c r="M33" t="str">
         <f>J33</f>
         <v>Chromatin</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3285,25 +3392,24 @@
       <c r="F34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="10" t="str">
+      <c r="L34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3322,25 +3428,24 @@
       <c r="F35" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="10" t="str">
+      <c r="L35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3357,27 +3462,26 @@
         <v>5.9072501692797E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="10" t="str">
+      <c r="L36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3394,31 +3498,30 @@
         <v>3.3550210282310001E-3</v>
       </c>
       <c r="F37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H37" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="10" t="str">
+      <c r="L37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>H3K27ME3</v>
       </c>
-      <c r="N37" t="str">
+      <c r="M37" t="str">
         <f>J37</f>
         <v>Chromatin</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3437,25 +3540,24 @@
       <c r="F38" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="10" t="str">
+      <c r="L38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3474,25 +3576,24 @@
       <c r="F39" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="10" t="str">
+      <c r="L39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3511,25 +3612,24 @@
       <c r="F40" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="10" t="str">
+      <c r="L40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3546,27 +3646,26 @@
         <v>5.9566891262250003E-3</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
-      </c>
-      <c r="H41" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K41" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="10" t="str">
+      <c r="L41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3585,25 +3684,24 @@
       <c r="F42" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="K42" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="10" t="str">
+      <c r="L42" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3622,25 +3720,24 @@
       <c r="F43" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="10" t="str">
+      <c r="L43" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3659,25 +3756,24 @@
       <c r="F44" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="10" t="str">
+      <c r="L44" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3696,25 +3792,24 @@
       <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="10" t="str">
+      <c r="L45" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3733,25 +3828,24 @@
       <c r="F46" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="10" t="str">
+      <c r="L46" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3770,25 +3864,24 @@
       <c r="F47" t="s">
         <v>48</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="10" t="str">
+      <c r="L47" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3807,25 +3900,24 @@
       <c r="F48" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K48" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="10" t="str">
+      <c r="L48" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3844,25 +3936,24 @@
       <c r="F49" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K49" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="10" t="str">
+      <c r="L49" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3881,25 +3972,24 @@
       <c r="F50" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="K50" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="10" t="str">
+      <c r="L50" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3918,25 +4008,24 @@
       <c r="F51" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="10" t="str">
+      <c r="L51" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3955,25 +4044,24 @@
       <c r="F52" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="K52" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="10" t="str">
+      <c r="L52" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3992,25 +4080,24 @@
       <c r="F53" t="s">
         <v>54</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K53" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="L53" s="12"/>
-      <c r="M53" s="10" t="str">
+      <c r="K53" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="L53" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4029,25 +4116,24 @@
       <c r="F54" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K54" s="13" t="s">
+      <c r="K54" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="10" t="str">
+      <c r="L54" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4066,25 +4152,24 @@
       <c r="F55" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="10" t="str">
+      <c r="L55" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4103,29 +4188,28 @@
       <c r="F56" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="10" t="str">
+      <c r="L56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>KI67</v>
       </c>
-      <c r="N56" t="str">
+      <c r="M56" t="str">
         <f>J56</f>
         <v>Cell-cycle</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4144,25 +4228,24 @@
       <c r="F57" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K57" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="10" t="str">
+      <c r="L57" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4181,25 +4264,24 @@
       <c r="F58" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="10" t="str">
+      <c r="L58" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4218,25 +4300,24 @@
       <c r="F59" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="J59" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="K59" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="10" t="str">
+      <c r="L59" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4255,25 +4336,24 @@
       <c r="F60" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="10" t="str">
+      <c r="L60" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4292,25 +4372,24 @@
       <c r="F61" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="L61" s="12"/>
-      <c r="M61" s="10" t="str">
+      <c r="K61" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="L61" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4329,25 +4408,24 @@
       <c r="F62" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K62" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="10" t="str">
+      <c r="K62" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L62" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4366,25 +4444,24 @@
       <c r="F63" t="s">
         <v>64</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="K63" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="10" t="str">
+      <c r="L63" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4403,25 +4480,24 @@
       <c r="F64" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="K64" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="L64" s="12"/>
-      <c r="M64" s="10" t="str">
+      <c r="K64" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="L64" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4440,25 +4516,24 @@
       <c r="F65" t="s">
         <v>66</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K65" s="12" t="s">
+      <c r="K65" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="L65" s="12"/>
-      <c r="M65" s="10" t="str">
+      <c r="L65" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4477,25 +4552,24 @@
       <c r="F66" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="10" t="str">
+      <c r="L66" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4514,25 +4588,24 @@
       <c r="F67" t="s">
         <v>68</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K67" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="10" t="str">
+      <c r="K67" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="L67" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4551,25 +4624,24 @@
       <c r="F68" t="s">
         <v>69</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="10" t="str">
-        <f t="shared" ref="M68:M81" si="1">IFERROR(VLOOKUP(UPPER(K68),$F$3:$F$179,1,0),IFERROR(VLOOKUP(K68,$F$3:$F$179,1,0),""))</f>
+      <c r="L68" s="9" t="str">
+        <f t="shared" ref="L68:L81" si="1">IFERROR(VLOOKUP(UPPER(K68),$F$3:$F$179,1,0),IFERROR(VLOOKUP(K68,$F$3:$F$179,1,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4588,25 +4660,24 @@
       <c r="F69" t="s">
         <v>70</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I69" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K69" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="10" t="str">
+      <c r="K69" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="L69" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4625,25 +4696,24 @@
       <c r="F70" t="s">
         <v>71</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="J70" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="K70" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="L70" s="13"/>
-      <c r="M70" s="10" t="str">
+      <c r="L70" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4662,25 +4732,24 @@
       <c r="F71" t="s">
         <v>72</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="K71" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="10" t="str">
+      <c r="L71" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4699,25 +4768,24 @@
       <c r="F72" t="s">
         <v>73</v>
       </c>
-      <c r="H72" s="12" t="s">
+      <c r="H72" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K72" s="12" t="s">
+      <c r="K72" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="L72" s="12"/>
-      <c r="M72" s="10" t="str">
+      <c r="L72" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4736,29 +4804,28 @@
       <c r="F73" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="I73" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K73" s="12" t="s">
+      <c r="K73" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="L73" s="12"/>
-      <c r="M73" s="10" t="str">
+      <c r="L73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PODOPLANIN</v>
       </c>
-      <c r="N73" t="str">
+      <c r="M73" t="str">
         <f>J73</f>
         <v>CAFs</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4777,25 +4844,24 @@
       <c r="F74" t="s">
         <v>75</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K74" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="10" t="str">
+      <c r="L74" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4814,25 +4880,24 @@
       <c r="F75" t="s">
         <v>76</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="I75" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="K75" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="10" t="str">
+      <c r="L75" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4851,25 +4916,24 @@
       <c r="F76" t="s">
         <v>77</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K76" s="13" t="s">
+      <c r="K76" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="10" t="str">
+      <c r="L76" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4888,25 +4952,24 @@
       <c r="F77" t="s">
         <v>78</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="J77" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="K77" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="10" t="str">
+      <c r="L77" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4925,25 +4988,24 @@
       <c r="F78" t="s">
         <v>79</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="I78" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J78" s="13" t="s">
+      <c r="J78" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K78" s="12" t="s">
+      <c r="K78" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="10" t="str">
+      <c r="L78" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4962,29 +5024,28 @@
       <c r="F79" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K79" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="L79" s="13"/>
-      <c r="M79" s="10" t="str">
+      <c r="L79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>VIMENTIN</v>
       </c>
-      <c r="N79" t="str">
+      <c r="M79" t="str">
         <f>J79</f>
         <v>Cancer</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5003,29 +5064,28 @@
       <c r="F80" t="s">
         <v>81</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J80" s="13" t="s">
+      <c r="J80" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K80" s="12" t="s">
+      <c r="K80" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="L80" s="12"/>
-      <c r="M80" s="10" t="str">
+      <c r="L80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>P53</v>
       </c>
-      <c r="N80" t="str">
+      <c r="M80" t="str">
         <f>J80</f>
         <v>Cancer</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5044,25 +5104,24 @@
       <c r="F81" t="s">
         <v>82</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J81" s="13" t="s">
+      <c r="J81" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K81" s="12" t="s">
+      <c r="K81" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="L81" s="12"/>
-      <c r="M81" s="10" t="str">
+      <c r="L81" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5082,7 +5141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5102,7 +5161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5122,7 +5181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5142,7 +5201,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5162,7 +5221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5182,7 +5241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5202,7 +5261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5222,7 +5281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5242,7 +5301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5262,7 +5321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5282,7 +5341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5302,7 +5361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5322,7 +5381,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5342,7 +5401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5659,7 +5718,7 @@
         <v>4.6686554910698001E-2</v>
       </c>
       <c r="F111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -5699,7 +5758,7 @@
         <v>5.9704122077563003E-2</v>
       </c>
       <c r="F113" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -5819,7 +5878,7 @@
         <v>2.6098350250672E-2</v>
       </c>
       <c r="F119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -6279,7 +6338,7 @@
         <v>1.4939671018486001E-2</v>
       </c>
       <c r="F142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -6739,7 +6798,7 @@
         <v>5.1071464087763002E-2</v>
       </c>
       <c r="F165" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -6759,7 +6818,7 @@
         <v>1.4269005065827E-2</v>
       </c>
       <c r="F166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -6779,7 +6838,7 @@
         <v>1.3977317633969999E-2</v>
       </c>
       <c r="F167" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
